--- a/template_pegase_v1/pcr.xlsx
+++ b/template_pegase_v1/pcr.xlsx
@@ -14,49 +14,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>sampleid</t>
-  </si>
-  <si>
-    <t>samplequantity</t>
-  </si>
-  <si>
-    <t>targetsequencename</t>
-  </si>
-  <si>
-    <t>reverseprimersequence</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>forwardprimersequence</t>
-  </si>
-  <si>
-    <t>rawdatapathway</t>
-  </si>
-  <si>
-    <t>pcrprogram</t>
-  </si>
-  <si>
-    <t>reverseprimername</t>
-  </si>
-  <si>
-    <t>criticalapparatuscriticalsoftware</t>
-  </si>
-  <si>
-    <t>forwardprimername</t>
-  </si>
-  <si>
-    <t>ampliconsize</t>
-  </si>
-  <si>
-    <t>criticalproduct</t>
-  </si>
-  <si>
-    <t>laboratoryoperatingmode</t>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>TargetSequenceName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerSequence</t>
+  </si>
+  <si>
+    <t>ReversePrimerName</t>
+  </si>
+  <si>
+    <t>ReversePrimerSequence</t>
+  </si>
+  <si>
+    <t>PcrProgram</t>
+  </si>
+  <si>
+    <t>SampleQuantity</t>
+  </si>
+  <si>
+    <t>AmpliconSize</t>
   </si>
   <si>
     <t>#string</t>
@@ -171,7 +171,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -180,7 +180,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -201,13 +201,13 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/pcr.xlsx
+++ b/template_pegase_v1/pcr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Operator</t>
   </si>
@@ -35,28 +35,34 @@
     <t>RawDataPathway</t>
   </si>
   <si>
+    <t>ForwardPrimerName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerSequence</t>
+  </si>
+  <si>
+    <t>ForwardPrimerTm</t>
+  </si>
+  <si>
+    <t>ReversePrimerName</t>
+  </si>
+  <si>
+    <t>ReversePrimerSequence</t>
+  </si>
+  <si>
+    <t>ReversePrimerTm</t>
+  </si>
+  <si>
+    <t>ExpectedAmpliconSize</t>
+  </si>
+  <si>
+    <t>PcrProgram</t>
+  </si>
+  <si>
     <t>TargetSequenceName</t>
   </si>
   <si>
-    <t>ForwardPrimerName</t>
-  </si>
-  <si>
-    <t>ForwardPrimerSequence</t>
-  </si>
-  <si>
-    <t>ReversePrimerName</t>
-  </si>
-  <si>
-    <t>ReversePrimerSequence</t>
-  </si>
-  <si>
-    <t>PcrProgram</t>
-  </si>
-  <si>
-    <t>SampleQuantity</t>
-  </si>
-  <si>
-    <t>AmpliconSize</t>
+    <t>TemplateAmount</t>
   </si>
   <si>
     <t>#string</t>
@@ -65,7 +71,64 @@
     <t>#date</t>
   </si>
   <si>
+    <t>#float</t>
+  </si>
+  <si>
+    <t>#integer,  unit:bp</t>
+  </si>
+  <si>
     <t>#integer</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#NomAmorceSens</t>
+  </si>
+  <si>
+    <t>#SequenceAmorceSens</t>
+  </si>
+  <si>
+    <t>#TmArmorceSens</t>
+  </si>
+  <si>
+    <t>#NomAmorcesAntisens</t>
+  </si>
+  <si>
+    <t>#SequenceAmorcesAntisens</t>
+  </si>
+  <si>
+    <t>#TmAmorcesAntisens</t>
+  </si>
+  <si>
+    <t>#TailleTheoriqueAmplicon</t>
+  </si>
+  <si>
+    <t>#ProgrammePCR</t>
+  </si>
+  <si>
+    <t>#NomSequenceCible</t>
+  </si>
+  <si>
+    <t>#QuantiteMatrice</t>
   </si>
 </sst>
 </file>
@@ -110,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,52 +225,117 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/pcr.xlsx
+++ b/template_pegase_v1/pcr.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>ForwardPrimerName</t>
   </si>
   <si>
@@ -65,12 +65,12 @@
     <t>TemplateAmount</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#float</t>
   </si>
   <si>
@@ -80,25 +80,25 @@
     <t>#integer</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#NomAmorceSens</t>
@@ -237,37 +237,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -276,10 +276,10 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
         <v>21</v>

--- a/template_pegase_v1/pcr.xlsx
+++ b/template_pegase_v1/pcr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -65,6 +68,9 @@
     <t>TemplateAmount</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -80,25 +86,28 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#NomAmorceSens</t>
@@ -129,6 +138,9 @@
   </si>
   <si>
     <t>#QuantiteMatrice</t>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -231,111 +243,129 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/pcr.xlsx
+++ b/template_pegase_v1/pcr.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,37 +41,85 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>ForwardPrimerName</t>
   </si>
   <si>
     <t>ForwardPrimerSequence</t>
   </si>
   <si>
-    <t>ForwardPrimerTm</t>
-  </si>
-  <si>
     <t>ReversePrimerName</t>
   </si>
   <si>
     <t>ReversePrimerSequence</t>
   </si>
   <si>
-    <t>ReversePrimerTm</t>
-  </si>
-  <si>
     <t>ExpectedAmpliconSize</t>
   </si>
   <si>
     <t>PcrProgram</t>
   </si>
   <si>
-    <t>TargetSequenceName</t>
+    <t>TargetGeneName</t>
   </si>
   <si>
     <t>TemplateAmount</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Nom de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Nom de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Taille théorique de l'amplicon</t>
+  </si>
+  <si>
+    <t># Programme PCR</t>
+  </si>
+  <si>
+    <t># Nom du gène cible</t>
+  </si>
+  <si>
+    <t># Quantité de matrice</t>
   </si>
   <si>
     <t>#date</t>
@@ -77,70 +128,107 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#float</t>
-  </si>
-  <si>
-    <t>#integer,  unit:bp</t>
+    <t>#integer,
+  unit:bp</t>
   </si>
   <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#NomAmorceSens</t>
-  </si>
-  <si>
-    <t>#SequenceAmorceSens</t>
-  </si>
-  <si>
-    <t>#TmArmorceSens</t>
-  </si>
-  <si>
-    <t>#NomAmorcesAntisens</t>
-  </si>
-  <si>
-    <t>#SequenceAmorcesAntisens</t>
-  </si>
-  <si>
-    <t>#TmAmorcesAntisens</t>
-  </si>
-  <si>
-    <t>#TailleTheoriqueAmplicon</t>
-  </si>
-  <si>
-    <t>#ProgrammePCR</t>
-  </si>
-  <si>
-    <t>#NomSequenceCible</t>
-  </si>
-  <si>
-    <t>#QuantiteMatrice</t>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: texte, 5'-3'</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: texte, symbole officiel du gène (HGNC)</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t># ex: ME1-F</t>
+  </si>
+  <si>
+    <t># ex: TGGTGACTGATGGAGAACGTATTC</t>
+  </si>
+  <si>
+    <t># ex: ME1_R</t>
+  </si>
+  <si>
+    <t># ex: CAGGATGACAGGCAGACATTCTT</t>
+  </si>
+  <si>
+    <t># ex: 85</t>
+  </si>
+  <si>
+    <t># ex: 2min50;20sec95;(3sec95+30sec60)x40;fusioncurve</t>
+  </si>
+  <si>
+    <t># ex: ME1</t>
+  </si>
+  <si>
+    <t># ex: 2.5</t>
   </si>
 </sst>
 </file>
@@ -185,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -246,108 +334,102 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
         <v>37</v>
@@ -356,16 +438,125 @@
         <v>38</v>
       </c>
       <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="R3" t="s">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="S3" t="s">
+      <c r="C4" t="s">
         <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/pcr.xlsx
+++ b/template_pegase_v1/pcr.xlsx
@@ -41,33 +41,33 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>ForwardPrimerName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerSequence</t>
+  </si>
+  <si>
+    <t>ReversePrimerName</t>
+  </si>
+  <si>
+    <t>ReversePrimerSequence</t>
+  </si>
+  <si>
+    <t>ExpectedAmpliconSize</t>
+  </si>
+  <si>
+    <t>PcrProgram</t>
+  </si>
+  <si>
+    <t>TargetGeneName</t>
+  </si>
+  <si>
+    <t>TemplateAmount</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>ForwardPrimerName</t>
-  </si>
-  <si>
-    <t>ForwardPrimerSequence</t>
-  </si>
-  <si>
-    <t>ReversePrimerName</t>
-  </si>
-  <si>
-    <t>ReversePrimerSequence</t>
-  </si>
-  <si>
-    <t>ExpectedAmpliconSize</t>
-  </si>
-  <si>
-    <t>PcrProgram</t>
-  </si>
-  <si>
-    <t>TargetGeneName</t>
-  </si>
-  <si>
-    <t>TemplateAmount</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -95,31 +95,31 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Nom de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Nom de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Taille théorique de l'amplicon</t>
+  </si>
+  <si>
+    <t># Programme PCR</t>
+  </si>
+  <si>
+    <t># Nom du gène cible</t>
+  </si>
+  <si>
+    <t># Quantité de matrice</t>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t># Nom de l'amorce sens</t>
-  </si>
-  <si>
-    <t># Sequence de l'amorce sens</t>
-  </si>
-  <si>
-    <t># Nom de l'amorce antisens</t>
-  </si>
-  <si>
-    <t># Sequence de l'amorce antisens</t>
-  </si>
-  <si>
-    <t># Taille théorique de l'amplicon</t>
-  </si>
-  <si>
-    <t># Programme PCR</t>
-  </si>
-  <si>
-    <t># Nom du gène cible</t>
-  </si>
-  <si>
-    <t># Quantité de matrice</t>
   </si>
   <si>
     <t>#date</t>
@@ -162,21 +162,21 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: texte, 5'-3'</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: texte, symbole officiel du gène (HGNC)</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: texte, 5'-3'</t>
-  </si>
-  <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: texte, symbole officiel du gène (HGNC)</t>
-  </si>
-  <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -204,31 +204,31 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: ME1-F</t>
+  </si>
+  <si>
+    <t># ex: TGGTGACTGATGGAGAACGTATTC</t>
+  </si>
+  <si>
+    <t># ex: ME1_R</t>
+  </si>
+  <si>
+    <t># ex: CAGGATGACAGGCAGACATTCTT</t>
+  </si>
+  <si>
+    <t># ex: 85</t>
+  </si>
+  <si>
+    <t># ex: 2min50;20sec95;(3sec95+30sec60)x40;fusioncurve</t>
+  </si>
+  <si>
+    <t># ex: ME1</t>
+  </si>
+  <si>
+    <t># ex: 2.5</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: ME1-F</t>
-  </si>
-  <si>
-    <t># ex: TGGTGACTGATGGAGAACGTATTC</t>
-  </si>
-  <si>
-    <t># ex: ME1_R</t>
-  </si>
-  <si>
-    <t># ex: CAGGATGACAGGCAGACATTCTT</t>
-  </si>
-  <si>
-    <t># ex: 85</t>
-  </si>
-  <si>
-    <t># ex: 2min50;20sec95;(3sec95+30sec60)x40;fusioncurve</t>
-  </si>
-  <si>
-    <t># ex: ME1</t>
-  </si>
-  <si>
-    <t># ex: 2.5</t>
   </si>
 </sst>
 </file>
@@ -432,19 +432,19 @@
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
         <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -476,25 +476,25 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
         <v>50</v>
       </c>
       <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
         <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
       </c>
       <c r="Q4" t="s">
         <v>52</v>
